--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,16 @@
     <t>中银量化精选灵活配置混合C</t>
   </si>
   <si>
+    <t>0.65</t>
+  </si>
+  <si>
     <t>93.76</t>
   </si>
   <si>
     <t>1.45</t>
+  </si>
+  <si>
+    <t>0.0094</t>
   </si>
 </sst>
 </file>
@@ -404,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +438,59 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -1,96 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>003717</t>
-  </si>
-  <si>
-    <t>010484</t>
-  </si>
-  <si>
-    <t>中银量化精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中银量化精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>93.76</t>
-  </si>
-  <si>
-    <t>1.45</t>
-  </si>
-  <si>
-    <t>0.0094</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,86 +446,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -738,4 +739,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1023,4 +1024,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1032,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,17 +1044,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1063,14 +1084,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1079,14 +1122,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1095,13 +1160,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1241,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,17 +1253,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1272,14 +1293,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5765</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1288,14 +1331,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1304,14 +1369,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1320,13 +1407,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2398,7 +2399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,17 +2410,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2429,14 +2450,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.4</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2445,14 +2488,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2461,14 +2526,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.18</v>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2477,14 +2564,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2493,13 +2602,1191 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.03</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1852,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3008,7 +3765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3216,7 +3973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3500,7 +4257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3670,7 +4427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000498-山东路桥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.03</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3765,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3973,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4257,7 +4520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4427,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
